--- a/results/mp/tinybert/corona/confidence/126/stop-words-0.15/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/126/stop-words-0.15/avg_0.003_scores.xlsx
@@ -40,130 +40,130 @@
     <t>name</t>
   </si>
   <si>
-    <t>killed</t>
-  </si>
-  <si>
     <t>crude</t>
   </si>
   <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>fraud</t>
+  </si>
+  <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
     <t>sc</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>great</t>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>confidence</t>
   </si>
   <si>
     <t>free</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
     <t>positive</t>
   </si>
   <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>thank</t>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>friends</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>safe</t>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>fresh</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>safety</t>
+    <t>care</t>
   </si>
   <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>better</t>
+    <t>like</t>
+  </si>
+  <si>
+    <t>hand</t>
   </si>
   <si>
     <t>important</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>hand</t>
+    <t>help</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
     <t>hope</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>join</t>
+    <t>increase</t>
   </si>
   <si>
     <t>please</t>
   </si>
   <si>
-    <t>alert</t>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>store</t>
   </si>
 </sst>
 </file>
@@ -521,7 +521,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q35"/>
+  <dimension ref="A1:Q37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -529,10 +529,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -590,13 +590,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="C3">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="D3">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -608,19 +608,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K3">
-        <v>0.9583333333333334</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="L3">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="M3">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -640,13 +640,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.92</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="C4">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D4">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -658,19 +658,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K4">
-        <v>0.9444444444444444</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L4">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="M4">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -690,13 +690,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7272727272727273</v>
+        <v>0.6388888888888888</v>
       </c>
       <c r="C5">
-        <v>112</v>
+        <v>23</v>
       </c>
       <c r="D5">
-        <v>112</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -708,19 +708,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K5">
-        <v>0.9</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L5">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="M5">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -732,7 +732,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -740,13 +740,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7058823529411765</v>
+        <v>0.589041095890411</v>
       </c>
       <c r="C6">
-        <v>12</v>
+        <v>172</v>
       </c>
       <c r="D6">
-        <v>12</v>
+        <v>172</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -758,31 +758,31 @@
         <v>0</v>
       </c>
       <c r="H6">
+        <v>120</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6">
+        <v>0.9152542372881356</v>
+      </c>
+      <c r="L6">
+        <v>54</v>
+      </c>
+      <c r="M6">
+        <v>54</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q6">
         <v>5</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K6">
-        <v>0.8823529411764706</v>
-      </c>
-      <c r="L6">
-        <v>45</v>
-      </c>
-      <c r="M6">
-        <v>45</v>
-      </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -790,13 +790,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.3703703703703703</v>
+        <v>0.1705426356589147</v>
       </c>
       <c r="C7">
-        <v>10</v>
+        <v>88</v>
       </c>
       <c r="D7">
-        <v>10</v>
+        <v>88</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -808,19 +808,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>17</v>
+        <v>428</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K7">
-        <v>0.875</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L7">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="M7">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -840,13 +840,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.3047210300429185</v>
+        <v>0.1693121693121693</v>
       </c>
       <c r="C8">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="D8">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -858,119 +858,71 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="J8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="L8">
+        <v>96</v>
+      </c>
+      <c r="M8">
+        <v>96</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="J9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9">
+        <v>0.8292682926829268</v>
+      </c>
+      <c r="L9">
+        <v>68</v>
+      </c>
+      <c r="M9">
+        <v>68</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="J10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K8">
-        <v>0.875</v>
-      </c>
-      <c r="L8">
-        <v>28</v>
-      </c>
-      <c r="M8">
-        <v>28</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9">
-        <v>0.2906976744186047</v>
-      </c>
-      <c r="C9">
-        <v>25</v>
-      </c>
-      <c r="D9">
-        <v>25</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>61</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K9">
-        <v>0.875</v>
-      </c>
-      <c r="L9">
-        <v>14</v>
-      </c>
-      <c r="M9">
-        <v>14</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10">
-        <v>0.1875</v>
-      </c>
-      <c r="C10">
-        <v>15</v>
-      </c>
-      <c r="D10">
-        <v>15</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>65</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="K10">
-        <v>0.8518518518518519</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="L10">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M10">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -982,21 +934,21 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K11">
-        <v>0.8461538461538461</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L11">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="M11">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1008,21 +960,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K12">
-        <v>0.8333333333333334</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L12">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="M12">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1034,21 +986,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K13">
-        <v>0.7843137254901961</v>
+        <v>0.7734375</v>
       </c>
       <c r="L13">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="M13">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1060,21 +1012,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K14">
-        <v>0.76</v>
+        <v>0.75</v>
       </c>
       <c r="L14">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="M14">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1086,21 +1038,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K15">
-        <v>0.7413793103448276</v>
+        <v>0.7416666666666667</v>
       </c>
       <c r="L15">
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="M15">
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1112,21 +1064,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>15</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K16">
-        <v>0.717948717948718</v>
+        <v>0.7413793103448276</v>
       </c>
       <c r="L16">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="M16">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1138,21 +1090,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K17">
-        <v>0.7058823529411765</v>
+        <v>0.7394366197183099</v>
       </c>
       <c r="L17">
-        <v>12</v>
+        <v>105</v>
       </c>
       <c r="M17">
-        <v>12</v>
+        <v>105</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1164,15 +1116,15 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>5</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K18">
-        <v>0.6896551724137931</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L18">
         <v>20</v>
@@ -1190,21 +1142,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K19">
-        <v>0.6666666666666666</v>
+        <v>0.7075471698113207</v>
       </c>
       <c r="L19">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="M19">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1216,21 +1168,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>8</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="L20">
         <v>34</v>
       </c>
-      <c r="K20">
-        <v>0.631578947368421</v>
-      </c>
-      <c r="L20">
-        <v>12</v>
-      </c>
       <c r="M20">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1242,21 +1194,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K21">
-        <v>0.6301369863013698</v>
+        <v>0.6625</v>
       </c>
       <c r="L21">
-        <v>46</v>
+        <v>106</v>
       </c>
       <c r="M21">
-        <v>46</v>
+        <v>106</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1268,21 +1220,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>27</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K22">
-        <v>0.6153846153846154</v>
+        <v>0.6507936507936508</v>
       </c>
       <c r="L22">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="M22">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1294,21 +1246,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K23">
-        <v>0.6060606060606061</v>
+        <v>0.62</v>
       </c>
       <c r="L23">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="M23">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1320,21 +1272,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K24">
-        <v>0.5882352941176471</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L24">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="M24">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1346,21 +1298,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K25">
-        <v>0.5600000000000001</v>
+        <v>0.574468085106383</v>
       </c>
       <c r="L25">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="M25">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1372,21 +1324,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>11</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K26">
-        <v>0.5117370892018779</v>
+        <v>0.4943820224719101</v>
       </c>
       <c r="L26">
-        <v>109</v>
+        <v>44</v>
       </c>
       <c r="M26">
-        <v>109</v>
+        <v>44</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1398,21 +1350,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>104</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K27">
-        <v>0.5</v>
+        <v>0.4893617021276596</v>
       </c>
       <c r="L27">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M27">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1424,21 +1376,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K28">
-        <v>0.5</v>
+        <v>0.4676470588235294</v>
       </c>
       <c r="L28">
-        <v>72</v>
+        <v>159</v>
       </c>
       <c r="M28">
-        <v>72</v>
+        <v>159</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1450,21 +1402,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>72</v>
+        <v>181</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K29">
-        <v>0.4857142857142857</v>
+        <v>0.4621409921671018</v>
       </c>
       <c r="L29">
-        <v>17</v>
+        <v>177</v>
       </c>
       <c r="M29">
-        <v>17</v>
+        <v>177</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1476,21 +1428,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>18</v>
+        <v>206</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K30">
-        <v>0.4642857142857143</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="L30">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M30">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1502,21 +1454,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K31">
-        <v>0.4573643410852713</v>
+        <v>0.4203389830508474</v>
       </c>
       <c r="L31">
-        <v>59</v>
+        <v>124</v>
       </c>
       <c r="M31">
-        <v>59</v>
+        <v>124</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1528,47 +1480,47 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>70</v>
+        <v>171</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K32">
+        <v>0.3698630136986301</v>
+      </c>
+      <c r="L32">
+        <v>27</v>
+      </c>
+      <c r="M32">
+        <v>27</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32">
         <v>46</v>
-      </c>
-      <c r="K32">
-        <v>0.4545454545454545</v>
-      </c>
-      <c r="L32">
-        <v>10</v>
-      </c>
-      <c r="M32">
-        <v>10</v>
-      </c>
-      <c r="N32">
-        <v>1</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>12</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K33">
-        <v>0.44</v>
+        <v>0.3692307692307693</v>
       </c>
       <c r="L33">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="M33">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1580,21 +1532,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>14</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K34">
-        <v>0.3478260869565217</v>
+        <v>0.358974358974359</v>
       </c>
       <c r="L34">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="M34">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1606,33 +1558,85 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K35">
+        <v>0.3138075313807531</v>
+      </c>
+      <c r="L35">
+        <v>75</v>
+      </c>
+      <c r="M35">
+        <v>75</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="36" spans="10:17">
+      <c r="J36" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K36">
+        <v>0.3125</v>
+      </c>
+      <c r="L36">
+        <v>20</v>
+      </c>
+      <c r="M36">
+        <v>20</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="10:17">
+      <c r="J37" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K35">
-        <v>0.34375</v>
-      </c>
-      <c r="L35">
-        <v>11</v>
-      </c>
-      <c r="M35">
-        <v>11</v>
-      </c>
-      <c r="N35">
-        <v>1</v>
-      </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
-      <c r="P35" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>21</v>
+      <c r="K37">
+        <v>0.0302013422818792</v>
+      </c>
+      <c r="L37">
+        <v>27</v>
+      </c>
+      <c r="M37">
+        <v>27</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>867</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/126/stop-words-0.15/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/126/stop-words-0.15/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="49">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,27 +43,30 @@
     <t>crude</t>
   </si>
   <si>
-    <t>died</t>
+    <t>crisis</t>
   </si>
   <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>crisis</t>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>sc</t>
   </si>
   <si>
     <t>panic</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
+    <t>strong</t>
+  </si>
+  <si>
     <t>happy</t>
   </si>
   <si>
@@ -73,79 +76,79 @@
     <t>best</t>
   </si>
   <si>
-    <t>strong</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>thanks</t>
   </si>
   <si>
     <t>nice</t>
   </si>
   <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>thank</t>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>good</t>
   </si>
   <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
     <t>relief</t>
   </si>
   <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>well</t>
+    <t>like</t>
   </si>
   <si>
     <t>care</t>
   </si>
   <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>hand</t>
+    <t>help</t>
   </si>
   <si>
     <t>important</t>
   </si>
   <si>
-    <t>help</t>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>please</t>
   </si>
   <si>
     <t>protect</t>
@@ -154,16 +157,10 @@
     <t>hope</t>
   </si>
   <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
     <t>sure</t>
   </si>
   <si>
-    <t>store</t>
+    <t>co</t>
   </si>
 </sst>
 </file>
@@ -521,7 +518,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q37"/>
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -532,7 +529,7 @@
         <v>14</v>
       </c>
       <c r="J1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -590,13 +587,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8529411764705882</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="C3">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -608,19 +605,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K3">
-        <v>0.9782608695652174</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L3">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M3">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -632,7 +629,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -640,13 +637,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7692307692307693</v>
+        <v>0.6095890410958904</v>
       </c>
       <c r="C4">
-        <v>20</v>
+        <v>178</v>
       </c>
       <c r="D4">
-        <v>20</v>
+        <v>178</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -658,19 +655,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>114</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K4">
-        <v>0.9615384615384616</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="L4">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="M4">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -690,13 +687,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.6388888888888888</v>
+        <v>0.5277777777777778</v>
       </c>
       <c r="C5">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D5">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -708,19 +705,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K5">
-        <v>0.9393939393939394</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L5">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="M5">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -740,13 +737,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.589041095890411</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="C6">
-        <v>172</v>
+        <v>20</v>
       </c>
       <c r="D6">
-        <v>172</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -758,19 +755,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>120</v>
+        <v>55</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>18</v>
       </c>
       <c r="K6">
-        <v>0.9152542372881356</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L6">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="M6">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -782,7 +779,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -790,13 +787,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.1705426356589147</v>
+        <v>0.201058201058201</v>
       </c>
       <c r="C7">
-        <v>88</v>
+        <v>38</v>
       </c>
       <c r="D7">
-        <v>88</v>
+        <v>38</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -808,19 +805,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>428</v>
+        <v>151</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K7">
-        <v>0.9090909090909091</v>
+        <v>0.8983050847457628</v>
       </c>
       <c r="L7">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="M7">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -832,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -840,13 +837,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.1693121693121693</v>
+        <v>0.1821705426356589</v>
       </c>
       <c r="C8">
-        <v>32</v>
+        <v>94</v>
       </c>
       <c r="D8">
-        <v>32</v>
+        <v>94</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -858,7 +855,7 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>157</v>
+        <v>422</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>20</v>
@@ -890,13 +887,13 @@
         <v>21</v>
       </c>
       <c r="K9">
-        <v>0.8292682926829268</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L9">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="M9">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -908,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -916,13 +913,13 @@
         <v>22</v>
       </c>
       <c r="K10">
-        <v>0.8148148148148148</v>
+        <v>0.8046875</v>
       </c>
       <c r="L10">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="M10">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -934,7 +931,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -942,13 +939,13 @@
         <v>23</v>
       </c>
       <c r="K11">
-        <v>0.7777777777777778</v>
+        <v>0.7926829268292683</v>
       </c>
       <c r="L11">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="M11">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -960,7 +957,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -994,13 +991,13 @@
         <v>25</v>
       </c>
       <c r="K13">
-        <v>0.7734375</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="L13">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="M13">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1012,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>29</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1023,10 +1020,10 @@
         <v>0.75</v>
       </c>
       <c r="L14">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="M14">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1038,7 +1035,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>9</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1046,13 +1043,13 @@
         <v>27</v>
       </c>
       <c r="K15">
-        <v>0.7416666666666667</v>
+        <v>0.7253521126760564</v>
       </c>
       <c r="L15">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="M15">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1064,7 +1061,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1072,13 +1069,13 @@
         <v>28</v>
       </c>
       <c r="K16">
-        <v>0.7413793103448276</v>
+        <v>0.7169811320754716</v>
       </c>
       <c r="L16">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="M16">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1090,7 +1087,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1098,13 +1095,13 @@
         <v>29</v>
       </c>
       <c r="K17">
-        <v>0.7394366197183099</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="L17">
-        <v>105</v>
+        <v>36</v>
       </c>
       <c r="M17">
-        <v>105</v>
+        <v>36</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1116,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>37</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1124,13 +1121,13 @@
         <v>30</v>
       </c>
       <c r="K18">
-        <v>0.7142857142857143</v>
+        <v>0.7</v>
       </c>
       <c r="L18">
-        <v>20</v>
+        <v>112</v>
       </c>
       <c r="M18">
-        <v>20</v>
+        <v>112</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1142,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>8</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1150,13 +1147,13 @@
         <v>31</v>
       </c>
       <c r="K19">
-        <v>0.7075471698113207</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="L19">
-        <v>75</v>
+        <v>22</v>
       </c>
       <c r="M19">
-        <v>75</v>
+        <v>22</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1168,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>31</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1176,13 +1173,13 @@
         <v>32</v>
       </c>
       <c r="K20">
-        <v>0.6666666666666666</v>
+        <v>0.5873015873015873</v>
       </c>
       <c r="L20">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="M20">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1194,7 +1191,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1202,13 +1199,13 @@
         <v>33</v>
       </c>
       <c r="K21">
-        <v>0.6625</v>
+        <v>0.58</v>
       </c>
       <c r="L21">
-        <v>106</v>
+        <v>29</v>
       </c>
       <c r="M21">
-        <v>106</v>
+        <v>29</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1220,7 +1217,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>54</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1228,13 +1225,13 @@
         <v>34</v>
       </c>
       <c r="K22">
-        <v>0.6507936507936508</v>
+        <v>0.574468085106383</v>
       </c>
       <c r="L22">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="M22">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1246,7 +1243,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1254,13 +1251,13 @@
         <v>35</v>
       </c>
       <c r="K23">
-        <v>0.62</v>
+        <v>0.5638297872340425</v>
       </c>
       <c r="L23">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="M23">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1272,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>19</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1280,13 +1277,13 @@
         <v>36</v>
       </c>
       <c r="K24">
-        <v>0.5833333333333334</v>
+        <v>0.5588235294117647</v>
       </c>
       <c r="L24">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="M24">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1298,7 +1295,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1306,13 +1303,13 @@
         <v>37</v>
       </c>
       <c r="K25">
-        <v>0.574468085106383</v>
+        <v>0.5013054830287206</v>
       </c>
       <c r="L25">
-        <v>54</v>
+        <v>192</v>
       </c>
       <c r="M25">
-        <v>54</v>
+        <v>192</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1324,7 +1321,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>40</v>
+        <v>191</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1332,13 +1329,13 @@
         <v>38</v>
       </c>
       <c r="K26">
-        <v>0.4943820224719101</v>
+        <v>0.4791666666666667</v>
       </c>
       <c r="L26">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="M26">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1350,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>45</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1358,13 +1355,13 @@
         <v>39</v>
       </c>
       <c r="K27">
-        <v>0.4893617021276596</v>
+        <v>0.4382352941176471</v>
       </c>
       <c r="L27">
-        <v>23</v>
+        <v>149</v>
       </c>
       <c r="M27">
-        <v>23</v>
+        <v>149</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1376,7 +1373,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>24</v>
+        <v>191</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1384,13 +1381,13 @@
         <v>40</v>
       </c>
       <c r="K28">
-        <v>0.4676470588235294</v>
+        <v>0.4269662921348314</v>
       </c>
       <c r="L28">
-        <v>159</v>
+        <v>38</v>
       </c>
       <c r="M28">
-        <v>159</v>
+        <v>38</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1402,7 +1399,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>181</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1410,13 +1407,13 @@
         <v>41</v>
       </c>
       <c r="K29">
-        <v>0.4621409921671018</v>
+        <v>0.423728813559322</v>
       </c>
       <c r="L29">
-        <v>177</v>
+        <v>125</v>
       </c>
       <c r="M29">
-        <v>177</v>
+        <v>125</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1428,7 +1425,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>206</v>
+        <v>170</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1462,13 +1459,13 @@
         <v>43</v>
       </c>
       <c r="K31">
-        <v>0.4203389830508474</v>
+        <v>0.3461538461538461</v>
       </c>
       <c r="L31">
-        <v>124</v>
+        <v>27</v>
       </c>
       <c r="M31">
-        <v>124</v>
+        <v>27</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1480,7 +1477,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>171</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1488,13 +1485,13 @@
         <v>44</v>
       </c>
       <c r="K32">
-        <v>0.3698630136986301</v>
+        <v>0.3430962343096234</v>
       </c>
       <c r="L32">
-        <v>27</v>
+        <v>82</v>
       </c>
       <c r="M32">
-        <v>27</v>
+        <v>82</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1506,7 +1503,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>46</v>
+        <v>157</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1514,13 +1511,13 @@
         <v>45</v>
       </c>
       <c r="K33">
-        <v>0.3692307692307693</v>
+        <v>0.3424657534246575</v>
       </c>
       <c r="L33">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M33">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1532,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>41</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1540,13 +1537,13 @@
         <v>46</v>
       </c>
       <c r="K34">
-        <v>0.358974358974359</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="L34">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="M34">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1558,7 +1555,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1566,13 +1563,13 @@
         <v>47</v>
       </c>
       <c r="K35">
-        <v>0.3138075313807531</v>
+        <v>0.296875</v>
       </c>
       <c r="L35">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="M35">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1584,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>164</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1592,51 +1589,25 @@
         <v>48</v>
       </c>
       <c r="K36">
-        <v>0.3125</v>
+        <v>0.007083065035415326</v>
       </c>
       <c r="L36">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M36">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="N36">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O36">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q36">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="37" spans="10:17">
-      <c r="J37" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K37">
-        <v>0.0302013422818792</v>
-      </c>
-      <c r="L37">
-        <v>27</v>
-      </c>
-      <c r="M37">
-        <v>27</v>
-      </c>
-      <c r="N37">
-        <v>1</v>
-      </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-      <c r="P37" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <v>867</v>
+        <v>3084</v>
       </c>
     </row>
   </sheetData>
